--- a/va_facility_data_2025-02-20/Schenectady VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Schenectady%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Schenectady VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Schenectady%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R288c98de7bb649a7939bde78c1c01cb3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R592989ff607042acb285f258d20c0eb0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R288800c0d5c9412d9372597efa724372"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb51d9812c660477a9f98ef042a8358d7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R474c05abaf934c05a9fa4394daf41cbc"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R421fdc85a9ac484e84c17a3c35a2fe49"/>
   </x:sheets>
 </x:workbook>
 </file>
